--- a/src/main/resources/python/MultifacetedModeling/RuleExtraction/GPR/data.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/RuleExtraction/GPR/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prediction" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="prediction" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,357 +450,357 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138.19631283281433</t>
+          <t>138.1963128328142</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>68.63352686121975</t>
+          <t>68.6335268612197</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>127.3506237649002</t>
+          <t>127.35062376490049</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>43.99865339996279</t>
+          <t>43.998653399963</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20.661397306253605</t>
+          <t>20.661397306253548</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-0.007835469645225857</t>
+          <t>-0.007835469645226882</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>-0.012243538554056244</t>
+          <t>-0.012243538554042014</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.028155256261186423</t>
+          <t>0.0281552562612066</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>67.61598756628119</t>
+          <t>67.6159875662811</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>95.13140812809712</t>
+          <t>95.13140812809698</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.13784233550499891</t>
+          <t>0.13784233550517944</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>108.30705968944869</t>
+          <t>108.30705968944862</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>106.95999105325015</t>
+          <t>106.95999105325039</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>118.6335400275808</t>
+          <t>118.63354002758156</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.005947810341822901</t>
+          <t>0.005947810341812868</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.00036933094827418245</t>
+          <t>0.00036933094833453803</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.30060757620572076</t>
+          <t>0.3006075762062968</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.0355026757170549</t>
+          <t>0.03550267571757386</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.007063466982401678</t>
+          <t>0.007063466982529729</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>-0.017135125655840966</t>
+          <t>-0.017135125655717297</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>48.263790827014304</t>
+          <t>48.26379082701509</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>113.517770441729</t>
+          <t>113.51777044172923</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>118.17179610901997</t>
+          <t>118.17179610902014</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>125.47020810047673</t>
+          <t>125.47020810047732</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>214.10293334578614</t>
+          <t>214.10293334578583</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>255.642957369741</t>
+          <t>255.64295736974094</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.01693787652547485</t>
+          <t>-0.0169378765254453</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.2527183615767967</t>
+          <t>0.2527183615770179</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.03169808224578219</t>
+          <t>0.03169808224617926</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.12231887023835952</t>
+          <t>-0.12231887023784589</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.0863992781035563</t>
+          <t>-0.08639927810306071</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.10094228461366583</t>
+          <t>0.1009422846142324</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.40596626033720895</t>
+          <t>0.4059662603375784</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>230.45199492784548</t>
+          <t>230.45199492784553</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>251.06827274831892</t>
+          <t>251.0682727483197</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>252.34146624272609</t>
+          <t>252.34146624272648</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>252.65534770661282</t>
+          <t>252.6553477066131</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>256.5704908743262</t>
+          <t>256.5704908743266</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>252.9998885210909</t>
+          <t>252.99988852109107</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>239.9834322207721</t>
+          <t>239.9834322207723</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>111.92251828594135</t>
+          <t>111.92251828594146</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>121.10866184846324</t>
+          <t>121.10866184846333</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.029784906568437464</t>
+          <t>0.029784906568602366</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>83.60304311670939</t>
+          <t>83.60304311670942</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.17399093900178286</t>
+          <t>-0.173990939001728</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>37.33602978261126</t>
+          <t>37.336029782611256</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>58.04798040783248</t>
+          <t>58.04798040783257</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>74.81049165672493</t>
+          <t>74.81049165672519</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>87.22546475004992</t>
+          <t>87.22546475005045</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>91.18789353246507</t>
+          <t>91.1878935324652</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>105.29797505721814</t>
+          <t>105.2979750572179</t>
         </is>
       </c>
     </row>
@@ -814,56 +814,56 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.014516358480184621</t>
+          <t>0.014516358480220756</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.00862237007540756</t>
+          <t>-0.008622370075384788</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0.0027095631405131826</t>
+          <t>0.0027095631406562396</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.07303694384086157</t>
+          <t>0.07303694384102984</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.9614285658279869</t>
+          <t>0.9614285658286986</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>230.47809499261643</t>
+          <t>230.47809499261672</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>226.91103386705595</t>
+          <t>226.91103386705598</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>221.017862679377</t>
+          <t>221.01786267937655</t>
         </is>
       </c>
     </row>
@@ -877,168 +877,168 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>106.48458153424713</t>
+          <t>106.48458153424734</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>112.61800144863889</t>
+          <t>112.61800144863881</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26.051720832908472</t>
+          <t>26.05172083290848</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>33.879675524508286</t>
+          <t>33.879675524508386</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>38.73561645419994</t>
+          <t>38.73561645420034</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>27.37916393167245</t>
+          <t>27.379163931672927</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>34.5524093676006</t>
+          <t>34.55240936760098</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.16242153742575738</t>
+          <t>0.16242153742603355</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0.04225787403962045</t>
+          <t>0.04225787403989211</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.03205158674671793</t>
+          <t>0.032051586746801676</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.029050383860692364</t>
+          <t>0.029050383860802973</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>262.9339120136385</t>
+          <t>262.93391201363926</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>247.99321504634872</t>
+          <t>247.9932150463482</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>97.438845779345</t>
+          <t>97.43884577934527</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>111.86855462067956</t>
+          <t>111.86855462068041</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>109.70857691917502</t>
+          <t>109.70857691917615</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-1.7518042206177142e-05</t>
+          <t>-1.7518042159931065e-05</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.8904657995886964</t>
+          <t>-0.890465799588014</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.0016569687270475697</t>
+          <t>0.0016569687271912573</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>100.81653564747012</t>
+          <t>100.81653564747059</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>105.38245988052574</t>
+          <t>105.38245988052563</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.002913372551915927</t>
+          <t>-0.0029133725519302294</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>103.7689699416587</t>
+          <t>103.768969941658</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>207.79034994808552</t>
+          <t>207.79034994808575</t>
         </is>
       </c>
     </row>
